--- a/MAOC_POC/MAOC_POC_forR.xlsx
+++ b/MAOC_POC/MAOC_POC_forR.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Academics\UC Davis\School Work\Linquist Lab\Data\R stats\GHG and MAOM POM\MAOM POM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Documents\GitHub\FallowRice_ContinuousRice_GHG_Carbon\MAOC_POC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11832" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8808" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1(with messed up sample)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="49">
   <si>
     <t>Sample</t>
   </si>
@@ -111,9 +110,6 @@
   </si>
   <si>
     <t>601-606 POM</t>
-  </si>
-  <si>
-    <t>607-612 POM</t>
   </si>
   <si>
     <t>701-706 POM</t>
@@ -519,1208 +515,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:J37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.88671875" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>2021</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2">
-        <v>9.9200000000000035</v>
-      </c>
-      <c r="G2">
-        <v>7.88</v>
-      </c>
-      <c r="H2">
-        <v>30.356999999999999</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3">
-        <v>2021</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>9.920000000000007</v>
-      </c>
-      <c r="G3">
-        <v>7.62</v>
-      </c>
-      <c r="H3">
-        <v>30.45</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4">
-        <v>2021</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F4">
-        <v>9.84</v>
-      </c>
-      <c r="G4">
-        <v>7.64</v>
-      </c>
-      <c r="H4">
-        <v>30.027999999999999</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>2021</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5">
-        <v>9.8400000000000016</v>
-      </c>
-      <c r="G5">
-        <v>7.56</v>
-      </c>
-      <c r="H5">
-        <v>30.19</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6">
-        <v>2021</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6">
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="G6">
-        <v>7.86</v>
-      </c>
-      <c r="H6">
-        <v>29.869</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7">
-        <v>2021</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>9.9199999999999982</v>
-      </c>
-      <c r="G7">
-        <v>7.9</v>
-      </c>
-      <c r="H7">
-        <v>30.114000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.15</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1.48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>2022</v>
-      </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G8">
-        <v>7.24</v>
-      </c>
-      <c r="H8">
-        <v>30.206</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9">
-        <v>2022</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9">
-        <v>9.8000000000000025</v>
-      </c>
-      <c r="G9">
-        <v>7.78</v>
-      </c>
-      <c r="H9">
-        <v>30.209</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>2022</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10">
-        <v>9.8599999999999977</v>
-      </c>
-      <c r="G10">
-        <v>7.84</v>
-      </c>
-      <c r="H10">
-        <v>30.175000000000001</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11">
-        <v>2022</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11">
-        <v>9.9200000000000017</v>
-      </c>
-      <c r="G11">
-        <v>7.56</v>
-      </c>
-      <c r="H11">
-        <v>30.33</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>2022</v>
-      </c>
-      <c r="D12">
-        <v>6</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12">
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="G12">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="H12">
-        <v>29.952000000000002</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J12" s="1">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13">
-        <v>2022</v>
-      </c>
-      <c r="D13">
-        <v>6</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13">
-        <v>9.8600000000000065</v>
-      </c>
-      <c r="G13">
-        <v>7.94</v>
-      </c>
-      <c r="H13">
-        <v>30.082999999999998</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>2023</v>
-      </c>
-      <c r="D14">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14">
-        <v>9.9400000000000048</v>
-      </c>
-      <c r="G14">
-        <v>7.52</v>
-      </c>
-      <c r="H14">
-        <v>30.001000000000001</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="J14" s="1">
-        <v>1.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15">
-        <v>2023</v>
-      </c>
-      <c r="D15">
-        <v>7</v>
-      </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15">
-        <v>9.8800000000000026</v>
-      </c>
-      <c r="G15">
-        <v>7.52</v>
-      </c>
-      <c r="H15">
-        <v>30.471</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="J15" s="1">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>2023</v>
-      </c>
-      <c r="D16">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16">
-        <v>9.92</v>
-      </c>
-      <c r="G16">
-        <v>7.54</v>
-      </c>
-      <c r="H16">
-        <v>30.498999999999999</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
-        <v>2023</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17">
-        <v>9.8999999999999932</v>
-      </c>
-      <c r="G17">
-        <v>7.92</v>
-      </c>
-      <c r="H17">
-        <v>29.545999999999999</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1.45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>2023</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18">
-        <v>9.8399999999999981</v>
-      </c>
-      <c r="G18">
-        <v>7.76</v>
-      </c>
-      <c r="H18">
-        <v>30.088999999999999</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19">
-        <v>2023</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19">
-        <v>9.879999999999999</v>
-      </c>
-      <c r="G19">
-        <v>7.66</v>
-      </c>
-      <c r="H19">
-        <v>30.032</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="J19" s="1">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20">
-        <v>2021</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20">
-        <v>9.9200000000000035</v>
-      </c>
-      <c r="G20">
-        <v>2.0400000000000009</v>
-      </c>
-      <c r="H20">
-        <v>29.529</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>2021</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21">
-        <v>9.920000000000007</v>
-      </c>
-      <c r="G21">
-        <v>2.3000000000000025</v>
-      </c>
-      <c r="H21">
-        <v>29.884</v>
-      </c>
-      <c r="I21" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J21" s="1">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>2021</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22">
-        <v>9.84</v>
-      </c>
-      <c r="G22">
-        <v>2.1999999999999993</v>
-      </c>
-      <c r="H22">
-        <v>29.94</v>
-      </c>
-      <c r="I22" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="J22" s="1">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23">
-        <v>2021</v>
-      </c>
-      <c r="D23">
-        <v>2</v>
-      </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23">
-        <v>9.8400000000000016</v>
-      </c>
-      <c r="G23">
-        <v>2.2799999999999994</v>
-      </c>
-      <c r="H23">
-        <v>30.245000000000001</v>
-      </c>
-      <c r="I23" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="J23" s="1">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24">
-        <v>2021</v>
-      </c>
-      <c r="D24">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24">
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="G24">
-        <v>2.0399999999999991</v>
-      </c>
-      <c r="H24">
-        <v>30.309000000000001</v>
-      </c>
-      <c r="I24" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J24" s="1">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <v>2021</v>
-      </c>
-      <c r="D25">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25">
-        <v>9.9199999999999982</v>
-      </c>
-      <c r="G25">
-        <v>2.0199999999999996</v>
-      </c>
-      <c r="H25">
-        <v>29.608000000000001</v>
-      </c>
-      <c r="I25" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="J25" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26">
-        <v>2022</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-      <c r="F26">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="G26">
-        <v>2.5599999999999987</v>
-      </c>
-      <c r="H26">
-        <v>30.254999999999999</v>
-      </c>
-      <c r="I26" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J26" s="1">
-        <v>0.93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27">
-        <v>2022</v>
-      </c>
-      <c r="D27">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27">
-        <v>9.8000000000000025</v>
-      </c>
-      <c r="G27">
-        <v>2.0200000000000014</v>
-      </c>
-      <c r="H27">
-        <v>30.172000000000001</v>
-      </c>
-      <c r="I27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2.3199999999999998</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28">
-        <v>2022</v>
-      </c>
-      <c r="D28">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28">
-        <v>9.8599999999999977</v>
-      </c>
-      <c r="G28">
-        <v>2.0200000000000014</v>
-      </c>
-      <c r="H28">
-        <v>29.817</v>
-      </c>
-      <c r="I28" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="J28" s="1">
-        <v>2.29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29">
-        <v>2022</v>
-      </c>
-      <c r="D29">
-        <v>5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29">
-        <v>9.9200000000000017</v>
-      </c>
-      <c r="G29">
-        <v>2.3599999999999994</v>
-      </c>
-      <c r="H29">
-        <v>30.196000000000002</v>
-      </c>
-      <c r="I29" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="1">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30">
-        <v>2022</v>
-      </c>
-      <c r="D30">
-        <v>6</v>
-      </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-      <c r="F30">
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="G30">
-        <v>1.8599999999999994</v>
-      </c>
-      <c r="H30">
-        <v>29.957000000000001</v>
-      </c>
-      <c r="I30" s="1">
-        <v>0.12</v>
-      </c>
-      <c r="J30" s="1">
-        <v>2.52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31">
-        <v>2022</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31">
-        <v>9.8600000000000065</v>
-      </c>
-      <c r="G31">
-        <v>1.9200000000000017</v>
-      </c>
-      <c r="H31">
-        <v>30.141999999999999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="J31" s="1">
-        <v>4.09</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>2023</v>
-      </c>
-      <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32">
-        <v>9.9400000000000048</v>
-      </c>
-      <c r="G32">
-        <v>2.4200000000000017</v>
-      </c>
-      <c r="H32">
-        <v>30.5</v>
-      </c>
-      <c r="I32" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="J32" s="1">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33">
-        <v>2023</v>
-      </c>
-      <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-      <c r="F33">
-        <v>9.8800000000000026</v>
-      </c>
-      <c r="G33">
-        <v>2.3599999999999994</v>
-      </c>
-      <c r="H33">
-        <v>29.975999999999999</v>
-      </c>
-      <c r="I33" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>2023</v>
-      </c>
-      <c r="D34">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34">
-        <v>9.92</v>
-      </c>
-      <c r="G34">
-        <v>2.3800000000000008</v>
-      </c>
-      <c r="H34">
-        <v>30.495000000000001</v>
-      </c>
-      <c r="I34" s="1">
-        <v>0.09</v>
-      </c>
-      <c r="J34" s="1">
-        <v>1.68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>2023</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F35">
-        <v>9.8999999999999932</v>
-      </c>
-      <c r="G35">
-        <v>1.9799999999999986</v>
-      </c>
-      <c r="H35">
-        <v>29.687000000000001</v>
-      </c>
-      <c r="I35" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="J35" s="1">
-        <v>3.05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36">
-        <v>2023</v>
-      </c>
-      <c r="D36">
-        <v>9</v>
-      </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36">
-        <v>9.8399999999999981</v>
-      </c>
-      <c r="G36">
-        <v>2.08</v>
-      </c>
-      <c r="H36">
-        <v>30.009</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="J36" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37">
-        <v>2023</v>
-      </c>
-      <c r="D37">
-        <v>9</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37">
-        <v>9.879999999999999</v>
-      </c>
-      <c r="G37">
-        <v>2.2200000000000024</v>
-      </c>
-      <c r="H37">
-        <v>30.100999999999999</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0.05</v>
-      </c>
-      <c r="J37" s="1">
-        <v>1.45</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1729,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
@@ -1740,31 +540,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H1" t="s">
-        <v>44</v>
-      </c>
       <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1772,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>2021</v>
@@ -1781,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <v>9.9200000000000035</v>
@@ -1804,7 +604,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -1813,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3">
         <v>9.920000000000007</v>
@@ -1836,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>2021</v>
@@ -1845,7 +645,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F4">
         <v>9.84</v>
@@ -1868,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -1877,7 +677,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5">
         <v>9.8400000000000016</v>
@@ -1900,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -1909,7 +709,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F6">
         <v>9.8999999999999986</v>
@@ -1932,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>2021</v>
@@ -1941,7 +741,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7">
         <v>9.9199999999999982</v>
@@ -1964,7 +764,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -1973,7 +773,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F8">
         <v>9.8000000000000007</v>
@@ -1996,7 +796,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2005,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9">
         <v>9.8000000000000025</v>
@@ -2028,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2037,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10">
         <v>9.8599999999999977</v>
@@ -2060,7 +860,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11">
         <v>2022</v>
@@ -2069,7 +869,7 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11">
         <v>9.9200000000000017</v>
@@ -2092,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2101,7 +901,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12">
         <v>9.8999999999999986</v>
@@ -2124,7 +924,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2133,7 +933,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13">
         <v>9.8600000000000065</v>
@@ -2156,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2165,7 +965,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14">
         <v>9.9400000000000048</v>
@@ -2188,7 +988,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2197,7 +997,7 @@
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F15">
         <v>9.8800000000000026</v>
@@ -2220,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2229,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16">
         <v>9.92</v>
@@ -2252,7 +1052,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -2261,7 +1061,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17">
         <v>9.8999999999999932</v>
@@ -2284,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2293,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F18">
         <v>9.8399999999999981</v>
@@ -2316,7 +1116,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -2325,7 +1125,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <v>9.879999999999999</v>
@@ -2348,7 +1148,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20">
         <v>2021</v>
@@ -2357,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F20">
         <v>9.9200000000000035</v>
@@ -2380,7 +1180,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21">
         <v>2021</v>
@@ -2389,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21">
         <v>9.920000000000007</v>
@@ -2412,7 +1212,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22">
         <v>2021</v>
@@ -2421,7 +1221,7 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F22">
         <v>9.84</v>
@@ -2444,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23">
         <v>2021</v>
@@ -2453,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F23">
         <v>9.8400000000000016</v>
@@ -2476,7 +1276,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>2021</v>
@@ -2485,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F24">
         <v>9.8999999999999986</v>
@@ -2508,7 +1308,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25">
         <v>2021</v>
@@ -2517,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F25">
         <v>9.9199999999999982</v>
@@ -2540,7 +1340,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -2549,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F26">
         <v>9.8000000000000007</v>
@@ -2572,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -2581,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>9.8000000000000025</v>
@@ -2604,7 +1404,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -2613,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F28">
         <v>9.8599999999999977</v>
@@ -2636,7 +1436,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -2645,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F29">
         <v>9.9200000000000017</v>
@@ -2668,7 +1468,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -2677,7 +1477,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F30">
         <v>9.8999999999999986</v>
@@ -2697,10 +1497,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -2709,7 +1509,7 @@
         <v>7</v>
       </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F31">
         <v>9.9400000000000048</v>
@@ -2729,10 +1529,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -2741,7 +1541,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F32">
         <v>9.8800000000000026</v>
@@ -2761,10 +1561,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -2773,7 +1573,7 @@
         <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F33">
         <v>9.92</v>
@@ -2793,10 +1593,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -2805,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F34">
         <v>9.8999999999999932</v>
@@ -2825,10 +1625,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -2837,7 +1637,7 @@
         <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F35">
         <v>9.8399999999999981</v>
@@ -2857,10 +1657,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -2869,7 +1669,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F36">
         <v>9.879999999999999</v>
@@ -2890,16 +1690,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>